--- a/Resources/DataFile/NPCInfo.xlsx
+++ b/Resources/DataFile/NPCInfo.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDirectX\GameEngine\Client2D\Bin\DataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DirectX\DirectX\Resources\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NPC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NPCName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,31 +38,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC가 플레이어에게 물건판매시 할인가격((가격/1024*값))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RepMult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC가 아이템 수리시 가격(floor(price/1024*value)) - 아이템 내구도에 영향을 받는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxBuy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC가 플레이어로부터 물건구매시 할인가격((가격/1024*값))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC가 플레이어로부터 물건구매시 최대가격</t>
+    <t>NPCType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCClassType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,10 +59,6 @@
   </si>
   <si>
     <t>Charsi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPCType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,93 +389,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>512</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>512</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1024</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>960</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>128</v>
-      </c>
-      <c r="B5">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5000</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
